--- a/data/cleaned/Normalized Table - Data type.xlsx
+++ b/data/cleaned/Normalized Table - Data type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dameliotomas\review-emotion-recognition-eda\data\cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78247B52-CF6B-4A7F-B844-838EAE7FAD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF22EF-A87C-43DA-9DBB-001CEADC0A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
